--- a/Regression.xlsx
+++ b/Regression.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>Scenario</t>
   </si>
@@ -25,56 +25,46 @@
     <t>Actions</t>
   </si>
   <si>
-    <t>Verify registration for Financial Advisor US</t>
-  </si>
-  <si>
-    <t xml:space="preserve">User clicks on Investment Professional -&gt; US -&gt; Financial Advisor
-User clicks on Investment Professional
-And User clicks on US
-And User clicks on Financial Advisor
-</t>
-  </si>
-  <si>
-    <t>User accepts T&amp;C and clicks on I Agree</t>
-  </si>
-  <si>
-    <t xml:space="preserve">User enters password and enters details </t>
-  </si>
-  <si>
-    <t>User completes registration by clicking on Complete button</t>
-  </si>
-  <si>
-    <t>open 'www.mfs.com'</t>
-  </si>
-  <si>
-    <t>click on 'Investment Professional'</t>
-  </si>
-  <si>
-    <t>click on 'GO'</t>
-  </si>
-  <si>
-    <t>click on 'Save my selection'</t>
-  </si>
-  <si>
-    <t>click on 'Register'</t>
-  </si>
-  <si>
-    <t>click on 'INVESTMENT PROFESSIONAL'</t>
-  </si>
-  <si>
-    <t>click on 'UNITED STATES'</t>
-  </si>
-  <si>
-    <t>click on 'I Agree'</t>
-  </si>
-  <si>
-    <t>enter 'password' in 'password'</t>
-  </si>
-  <si>
-    <t>ENTER 'BAT123' IN 'userName'</t>
-  </si>
-  <si>
-    <t>Click on 'Complete'</t>
+    <t>validate Add To Bag</t>
+  </si>
+  <si>
+    <t>Visit dove.com</t>
+  </si>
+  <si>
+    <t>click on Add to bag</t>
+  </si>
+  <si>
+    <t>click on View Cart</t>
+  </si>
+  <si>
+    <t>user open 'www.caress.us/us/en/products/body-wash/sheer-twilight-with-pump-254-oz.html'</t>
+  </si>
+  <si>
+    <t>user click on 'Add To Bag' button</t>
+  </si>
+  <si>
+    <t>user click on 'Retailer Dropdown' button</t>
+  </si>
+  <si>
+    <t>user click on 'Walmart Option' button</t>
+  </si>
+  <si>
+    <t>user click on 'Size Dropdown' button</t>
+  </si>
+  <si>
+    <t>user click on '18 oz Option' button</t>
+  </si>
+  <si>
+    <t>user click on 'ADD TO BAG' button</t>
+  </si>
+  <si>
+    <t>user click on 'VIEW CART' button</t>
+  </si>
+  <si>
+    <t>validate that 'Caress Sheer Twilight Body Wash, 18 oz' is displayed</t>
+  </si>
+  <si>
+    <t>validate that 'Sub Total' is equal to '$3.97'</t>
   </si>
 </sst>
 </file>
@@ -432,7 +422,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D12"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -457,18 +447,21 @@
         <v>3</v>
       </c>
       <c r="C2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="1">
         <v>1</v>
       </c>
+      <c r="C3" t="s">
+        <v>5</v>
+      </c>
       <c r="D3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -476,7 +469,7 @@
         <v>2</v>
       </c>
       <c r="D4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -484,7 +477,7 @@
         <v>3</v>
       </c>
       <c r="D5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -492,18 +485,15 @@
         <v>4</v>
       </c>
       <c r="D6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="1">
         <v>5</v>
       </c>
-      <c r="C7" t="s">
-        <v>4</v>
-      </c>
       <c r="D7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -511,7 +501,7 @@
         <v>6</v>
       </c>
       <c r="D8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -519,21 +509,18 @@
         <v>7</v>
       </c>
       <c r="C9" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="1">
         <v>8</v>
       </c>
-      <c r="C10" t="s">
-        <v>6</v>
-      </c>
       <c r="D10" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -541,18 +528,7 @@
         <v>9</v>
       </c>
       <c r="D11" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="A12" s="1">
-        <v>10</v>
-      </c>
-      <c r="C12" t="s">
-        <v>7</v>
-      </c>
-      <c r="D12" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/Regression.xlsx
+++ b/Regression.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>Scenario</t>
   </si>
@@ -25,46 +25,44 @@
     <t>Actions</t>
   </si>
   <si>
-    <t>validate Add To Bag</t>
+    <t>validate Search Result</t>
   </si>
   <si>
     <t>Visit dove.com</t>
   </si>
   <si>
-    <t>click on Add to bag</t>
-  </si>
-  <si>
-    <t>click on View Cart</t>
-  </si>
-  <si>
-    <t>user open 'www.caress.us/us/en/products/body-wash/sheer-twilight-with-pump-254-oz.html'</t>
-  </si>
-  <si>
-    <t>user click on 'Add To Bag' button</t>
-  </si>
-  <si>
-    <t>user click on 'Retailer Dropdown' button</t>
-  </si>
-  <si>
-    <t>user click on 'Walmart Option' button</t>
-  </si>
-  <si>
-    <t>user click on 'Size Dropdown' button</t>
-  </si>
-  <si>
-    <t>user click on '18 oz Option' button</t>
-  </si>
-  <si>
-    <t>user click on 'ADD TO BAG' button</t>
-  </si>
-  <si>
-    <t>user click on 'VIEW CART' button</t>
-  </si>
-  <si>
-    <t>validate that 'Caress Sheer Twilight Body Wash, 18 oz' is displayed</t>
-  </si>
-  <si>
-    <t>validate that 'Sub Total' is equal to '$3.97'</t>
+    <t>click on Search button and enter text</t>
+  </si>
+  <si>
+    <t>select product from the dropdown
+click on the first product</t>
+  </si>
+  <si>
+    <t>user open 'www.dove.com/us/en/home.html'</t>
+  </si>
+  <si>
+    <t>user click on 'Search' button</t>
+  </si>
+  <si>
+    <t>user enter the text as 'Hair' in the 'Search Field'</t>
+  </si>
+  <si>
+    <t>user click on 'Search Button'</t>
+  </si>
+  <si>
+    <t>user selects 'Product' from the dropdown 'filterBy'</t>
+  </si>
+  <si>
+    <t>user clicks on 'Compressed Flexible Hold Hair Spray' link</t>
+  </si>
+  <si>
+    <t>user validate that 'Compressed Flexible Hold Hair Spray' link is displayed</t>
+  </si>
+  <si>
+    <t>get 'https://data.gingersoftware.com/clientdata/jsonSecured/GetApprovalCount?apiKey=BrowserStandalone&amp;lang=US&amp;userIdentifier=dffd08f4-e02e-45bf-bb48-a72d382bb59e&amp;authToken=01-1570440200471-9292' with 'no' parameters</t>
+  </si>
+  <si>
+    <t>get 'https://unileverna.tt.omtrdc.net/m2/unileverna/mbox/json?mbox=target-global-mbox&amp;mboxSession=01204fe16906418cb68cb9d42cd81e61' with 'no' parameters</t>
   </si>
 </sst>
 </file>
@@ -422,7 +420,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -484,6 +482,9 @@
       <c r="A6" s="1">
         <v>4</v>
       </c>
+      <c r="C6" t="s">
+        <v>6</v>
+      </c>
       <c r="D6" t="s">
         <v>11</v>
       </c>
@@ -508,9 +509,6 @@
       <c r="A9" s="1">
         <v>7</v>
       </c>
-      <c r="C9" t="s">
-        <v>6</v>
-      </c>
       <c r="D9" t="s">
         <v>14</v>
       </c>
@@ -521,14 +519,6 @@
       </c>
       <c r="D10" t="s">
         <v>15</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="A11" s="1">
-        <v>9</v>
-      </c>
-      <c r="D11" t="s">
-        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/Regression.xlsx
+++ b/Regression.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>Scenario</t>
   </si>
@@ -25,44 +25,37 @@
     <t>Actions</t>
   </si>
   <si>
-    <t>validate Search Result</t>
-  </si>
-  <si>
-    <t>Visit dove.com</t>
-  </si>
-  <si>
-    <t>click on Search button and enter text</t>
-  </si>
-  <si>
-    <t>select product from the dropdown
-click on the first product</t>
-  </si>
-  <si>
-    <t>user open 'www.dove.com/us/en/home.html'</t>
-  </si>
-  <si>
-    <t>user click on 'Search' button</t>
-  </si>
-  <si>
-    <t>user enter the text as 'Hair' in the 'Search Field'</t>
-  </si>
-  <si>
-    <t>user click on 'Search Button'</t>
-  </si>
-  <si>
-    <t>user selects 'Product' from the dropdown 'filterBy'</t>
-  </si>
-  <si>
-    <t>user clicks on 'Compressed Flexible Hold Hair Spray' link</t>
-  </si>
-  <si>
-    <t>user validate that 'Compressed Flexible Hold Hair Spray' link is displayed</t>
-  </si>
-  <si>
-    <t>get 'https://data.gingersoftware.com/clientdata/jsonSecured/GetApprovalCount?apiKey=BrowserStandalone&amp;lang=US&amp;userIdentifier=dffd08f4-e02e-45bf-bb48-a72d382bb59e&amp;authToken=01-1570440200471-9292' with 'no' parameters</t>
-  </si>
-  <si>
-    <t>get 'https://unileverna.tt.omtrdc.net/m2/unileverna/mbox/json?mbox=target-global-mbox&amp;mboxSession=01204fe16906418cb68cb9d42cd81e61' with 'no' parameters</t>
+    <t>Select Fund From Drop Down</t>
+  </si>
+  <si>
+    <t>Visit mfs.com</t>
+  </si>
+  <si>
+    <t>select Fund</t>
+  </si>
+  <si>
+    <t>user open 'www.mfs.com/role-gate.html''</t>
+  </si>
+  <si>
+    <t>user validate page title as 'Role Gate'</t>
+  </si>
+  <si>
+    <t>user click on 'Investment Professional'</t>
+  </si>
+  <si>
+    <t>user click on 'GO'</t>
+  </si>
+  <si>
+    <t>click on 'Save my selection'</t>
+  </si>
+  <si>
+    <t>Assert that 'MFS Logo' is displayed</t>
+  </si>
+  <si>
+    <t>user selects 'MFS® Aggressive Growth Allocation Fund' from the dropdown 'js-product-dropdown'</t>
+  </si>
+  <si>
+    <t>user validate that url contains 'mfs-aggressive-growth-allocation-fund'</t>
   </si>
 </sst>
 </file>
@@ -420,7 +413,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -448,18 +441,15 @@
         <v>4</v>
       </c>
       <c r="D2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="1">
         <v>1</v>
       </c>
-      <c r="C3" t="s">
-        <v>5</v>
-      </c>
       <c r="D3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -467,7 +457,7 @@
         <v>2</v>
       </c>
       <c r="D4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -475,18 +465,15 @@
         <v>3</v>
       </c>
       <c r="D5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="1">
         <v>4</v>
       </c>
-      <c r="C6" t="s">
-        <v>6</v>
-      </c>
       <c r="D6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -494,15 +481,18 @@
         <v>5</v>
       </c>
       <c r="D7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="1">
         <v>6</v>
       </c>
+      <c r="C8" t="s">
+        <v>5</v>
+      </c>
       <c r="D8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -510,15 +500,7 @@
         <v>7</v>
       </c>
       <c r="D9" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10" s="1">
-        <v>8</v>
-      </c>
-      <c r="D10" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/Regression.xlsx
+++ b/Regression.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>Scenario</t>
   </si>
@@ -25,16 +25,32 @@
     <t>Actions</t>
   </si>
   <si>
-    <t>Select Fund From Drop Down</t>
-  </si>
-  <si>
-    <t>Visit mfs.com</t>
-  </si>
-  <si>
-    <t>select Fund</t>
-  </si>
-  <si>
-    <t>user open 'www.mfs.com/role-gate.html''</t>
+    <t>Verify registration for Financial Advisor US</t>
+  </si>
+  <si>
+    <t>user hits 'www.mfs.com' and choose role as 'Investment Professional'</t>
+  </si>
+  <si>
+    <t>Then click on 'Register'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">User clicks on Investment Professional -&gt; US -&gt; Financial Advisor
+User clicks on Investment Professional
+And User clicks on US
+And User clicks on Financial Advisor
+</t>
+  </si>
+  <si>
+    <t>User accepts T&amp;C and clicks on I Agree</t>
+  </si>
+  <si>
+    <t xml:space="preserve">User enters password and enters details </t>
+  </si>
+  <si>
+    <t>User completes registration by clicking on Complete button</t>
+  </si>
+  <si>
+    <t>user open 'www.mfs.com'</t>
   </si>
   <si>
     <t>user validate page title as 'Role Gate'</t>
@@ -46,16 +62,34 @@
     <t>user click on 'GO'</t>
   </si>
   <si>
-    <t>click on 'Save my selection'</t>
-  </si>
-  <si>
-    <t>Assert that 'MFS Logo' is displayed</t>
-  </si>
-  <si>
-    <t>user selects 'MFS® Aggressive Growth Allocation Fund' from the dropdown 'js-product-dropdown'</t>
-  </si>
-  <si>
-    <t>user validate that url contains 'mfs-aggressive-growth-allocation-fund'</t>
+    <t>user click on 'Save my selection'</t>
+  </si>
+  <si>
+    <t>user click on 'Register'</t>
+  </si>
+  <si>
+    <t>user validate page title as 'Register'</t>
+  </si>
+  <si>
+    <t>user click on 'INVESTMENT PROFESSIONAL'</t>
+  </si>
+  <si>
+    <t>user click on 'UNITED STATES'</t>
+  </si>
+  <si>
+    <t>user click on 'I Agree'</t>
+  </si>
+  <si>
+    <t>user enter 'password' in 'password'</t>
+  </si>
+  <si>
+    <t>user ENTER 'BAT123' IN 'userName'</t>
+  </si>
+  <si>
+    <t>user Click on 'Complete'</t>
+  </si>
+  <si>
+    <t>user assert that error messag 'First Name is required' is displayed</t>
   </si>
 </sst>
 </file>
@@ -413,7 +447,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -441,15 +475,18 @@
         <v>4</v>
       </c>
       <c r="D2" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="1">
         <v>1</v>
       </c>
+      <c r="C3" t="s">
+        <v>5</v>
+      </c>
       <c r="D3" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -457,7 +494,7 @@
         <v>2</v>
       </c>
       <c r="D4" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -465,7 +502,7 @@
         <v>3</v>
       </c>
       <c r="D5" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -473,7 +510,7 @@
         <v>4</v>
       </c>
       <c r="D6" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -481,26 +518,83 @@
         <v>5</v>
       </c>
       <c r="D7" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="1">
         <v>6</v>
       </c>
-      <c r="C8" t="s">
-        <v>5</v>
-      </c>
       <c r="D8" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="1">
         <v>7</v>
       </c>
+      <c r="C9" t="s">
+        <v>6</v>
+      </c>
       <c r="D9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="D10" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="C11" t="s">
+        <v>7</v>
+      </c>
+      <c r="D11" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="C12" t="s">
+        <v>8</v>
+      </c>
+      <c r="D12" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" s="1">
+        <v>11</v>
+      </c>
+      <c r="D13" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" s="1">
+        <v>12</v>
+      </c>
+      <c r="C14" t="s">
+        <v>9</v>
+      </c>
+      <c r="D14" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" s="1">
         <v>13</v>
+      </c>
+      <c r="D15" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>

--- a/Regression.xlsx
+++ b/Regression.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>Scenario</t>
   </si>
@@ -25,32 +25,16 @@
     <t>Actions</t>
   </si>
   <si>
-    <t>Verify registration for Financial Advisor US</t>
-  </si>
-  <si>
-    <t>user hits 'www.mfs.com' and choose role as 'Investment Professional'</t>
-  </si>
-  <si>
-    <t>Then click on 'Register'</t>
-  </si>
-  <si>
-    <t xml:space="preserve">User clicks on Investment Professional -&gt; US -&gt; Financial Advisor
-User clicks on Investment Professional
-And User clicks on US
-And User clicks on Financial Advisor
-</t>
-  </si>
-  <si>
-    <t>User accepts T&amp;C and clicks on I Agree</t>
-  </si>
-  <si>
-    <t xml:space="preserve">User enters password and enters details </t>
-  </si>
-  <si>
-    <t>User completes registration by clicking on Complete button</t>
-  </si>
-  <si>
-    <t>user open 'www.mfs.com'</t>
+    <t>Select Fund From Drop Down</t>
+  </si>
+  <si>
+    <t>Visit mfs.com</t>
+  </si>
+  <si>
+    <t>select Fund</t>
+  </si>
+  <si>
+    <t>user open 'www.mfs.com/role-gate.html''</t>
   </si>
   <si>
     <t>user validate page title as 'Role Gate'</t>
@@ -62,34 +46,16 @@
     <t>user click on 'GO'</t>
   </si>
   <si>
-    <t>user click on 'Save my selection'</t>
-  </si>
-  <si>
-    <t>user click on 'Register'</t>
-  </si>
-  <si>
-    <t>user validate page title as 'Register'</t>
-  </si>
-  <si>
-    <t>user click on 'INVESTMENT PROFESSIONAL'</t>
-  </si>
-  <si>
-    <t>user click on 'UNITED STATES'</t>
-  </si>
-  <si>
-    <t>user click on 'I Agree'</t>
-  </si>
-  <si>
-    <t>user enter 'password' in 'password'</t>
-  </si>
-  <si>
-    <t>user ENTER 'BAT123' IN 'userName'</t>
-  </si>
-  <si>
-    <t>user Click on 'Complete'</t>
-  </si>
-  <si>
-    <t>user assert that error messag 'First Name is required' is displayed</t>
+    <t>click on 'Save my selection'</t>
+  </si>
+  <si>
+    <t>Assert that 'MFS Logo' is displayed</t>
+  </si>
+  <si>
+    <t>user selects 'MFS® Aggressive Growth Allocation Fund' from the dropdown 'js-product-dropdown'</t>
+  </si>
+  <si>
+    <t>user validate that url contains 'mfs-aggressive-growth-allocation-fund'</t>
   </si>
 </sst>
 </file>
@@ -447,7 +413,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D15"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -475,18 +441,15 @@
         <v>4</v>
       </c>
       <c r="D2" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="1">
         <v>1</v>
       </c>
-      <c r="C3" t="s">
-        <v>5</v>
-      </c>
       <c r="D3" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -494,7 +457,7 @@
         <v>2</v>
       </c>
       <c r="D4" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -502,7 +465,7 @@
         <v>3</v>
       </c>
       <c r="D5" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -510,7 +473,7 @@
         <v>4</v>
       </c>
       <c r="D6" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -518,83 +481,26 @@
         <v>5</v>
       </c>
       <c r="D7" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="1">
         <v>6</v>
       </c>
+      <c r="C8" t="s">
+        <v>5</v>
+      </c>
       <c r="D8" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="1">
         <v>7</v>
       </c>
-      <c r="C9" t="s">
-        <v>6</v>
-      </c>
       <c r="D9" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10" s="1">
-        <v>8</v>
-      </c>
-      <c r="D10" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="A11" s="1">
-        <v>9</v>
-      </c>
-      <c r="C11" t="s">
-        <v>7</v>
-      </c>
-      <c r="D11" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="A12" s="1">
-        <v>10</v>
-      </c>
-      <c r="C12" t="s">
-        <v>8</v>
-      </c>
-      <c r="D12" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
-      <c r="A13" s="1">
-        <v>11</v>
-      </c>
-      <c r="D13" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
-      <c r="A14" s="1">
-        <v>12</v>
-      </c>
-      <c r="C14" t="s">
-        <v>9</v>
-      </c>
-      <c r="D14" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
-      <c r="A15" s="1">
         <v>13</v>
-      </c>
-      <c r="D15" t="s">
-        <v>23</v>
       </c>
     </row>
   </sheetData>

--- a/Regression.xlsx
+++ b/Regression.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>Scenario</t>
   </si>
@@ -25,13 +25,13 @@
     <t>Actions</t>
   </si>
   <si>
-    <t>Select Fund From Drop Down</t>
+    <t>validate Login Functionality With Wrong credits</t>
   </si>
   <si>
     <t>Visit mfs.com</t>
   </si>
   <si>
-    <t>select Fund</t>
+    <t>Click on login and Enter Credits</t>
   </si>
   <si>
     <t>user open 'www.mfs.com/role-gate.html''</t>
@@ -40,22 +40,28 @@
     <t>user validate page title as 'Role Gate'</t>
   </si>
   <si>
-    <t>user click on 'Investment Professional'</t>
-  </si>
-  <si>
-    <t>user click on 'GO'</t>
-  </si>
-  <si>
-    <t>click on 'Save my selection'</t>
-  </si>
-  <si>
-    <t>Assert that 'MFS Logo' is displayed</t>
-  </si>
-  <si>
-    <t>user selects 'MFS® Aggressive Growth Allocation Fund' from the dropdown 'js-product-dropdown'</t>
-  </si>
-  <si>
-    <t>user validate that url contains 'mfs-aggressive-growth-allocation-fund'</t>
+    <t>user click on 'Login'</t>
+  </si>
+  <si>
+    <t>user check that 'username' is enabled</t>
+  </si>
+  <si>
+    <t>validate that 'password' is enabled</t>
+  </si>
+  <si>
+    <t>user enter 'guntertest@mfs.co' in 'username'</t>
+  </si>
+  <si>
+    <t>user enter 'guntertest14' in 'password'</t>
+  </si>
+  <si>
+    <t>Assert that 'rememberme' is not selected</t>
+  </si>
+  <si>
+    <t>user click on 'Login to MFS.com'</t>
+  </si>
+  <si>
+    <t>Assert that error 'Please log in with a valid user name and password' message is displayed</t>
   </si>
 </sst>
 </file>
@@ -413,7 +419,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -464,6 +470,9 @@
       <c r="A5" s="1">
         <v>3</v>
       </c>
+      <c r="C5" t="s">
+        <v>5</v>
+      </c>
       <c r="D5" t="s">
         <v>9</v>
       </c>
@@ -488,9 +497,6 @@
       <c r="A8" s="1">
         <v>6</v>
       </c>
-      <c r="C8" t="s">
-        <v>5</v>
-      </c>
       <c r="D8" t="s">
         <v>12</v>
       </c>
@@ -501,6 +507,22 @@
       </c>
       <c r="D9" t="s">
         <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="D10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="D11" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/Regression.xlsx
+++ b/Regression.xlsx
@@ -25,43 +25,44 @@
     <t>Actions</t>
   </si>
   <si>
-    <t>validate Login Functionality With Wrong credits</t>
-  </si>
-  <si>
-    <t>Visit mfs.com</t>
-  </si>
-  <si>
-    <t>Click on login and Enter Credits</t>
-  </si>
-  <si>
-    <t>user open 'www.mfs.com/role-gate.html''</t>
-  </si>
-  <si>
-    <t>user validate page title as 'Role Gate'</t>
-  </si>
-  <si>
-    <t>user click on 'Login'</t>
-  </si>
-  <si>
-    <t>user check that 'username' is enabled</t>
-  </si>
-  <si>
-    <t>validate that 'password' is enabled</t>
-  </si>
-  <si>
-    <t>user enter 'guntertest@mfs.co' in 'username'</t>
-  </si>
-  <si>
-    <t>user enter 'guntertest14' in 'password'</t>
-  </si>
-  <si>
-    <t>Assert that 'rememberme' is not selected</t>
-  </si>
-  <si>
-    <t>user click on 'Login to MFS.com'</t>
-  </si>
-  <si>
-    <t>Assert that error 'Please log in with a valid user name and password' message is displayed</t>
+    <t>validate Search Result</t>
+  </si>
+  <si>
+    <t>Visit dove.com</t>
+  </si>
+  <si>
+    <t>click on Search button and enter text</t>
+  </si>
+  <si>
+    <t>select product from the dropdown
+click on the first product</t>
+  </si>
+  <si>
+    <t>user open 'www.dove.com/us/en/home.html'</t>
+  </si>
+  <si>
+    <t>user click on 'Search' button</t>
+  </si>
+  <si>
+    <t>user enter the text as 'Hair' in the 'Search Field'</t>
+  </si>
+  <si>
+    <t>user click on 'Search Button'</t>
+  </si>
+  <si>
+    <t>user selects 'Product' from the dropdown 'filterBy'</t>
+  </si>
+  <si>
+    <t>user clicks on 'Compressed Flexible Hold Hair Spray' link</t>
+  </si>
+  <si>
+    <t>user validate that 'Compressed Flexible Hold Hair Spray' link is displayed</t>
+  </si>
+  <si>
+    <t>get 'https://data.gingersoftware.com/clientdata/jsonSecured/GetApprovalCount?apiKey=BrowserStandalone&amp;lang=US&amp;userIdentifier=dffd08f4-e02e-45bf-bb48-a72d382bb59e&amp;authToken=01-1570440200471-9292' with 'no' parameters</t>
+  </si>
+  <si>
+    <t>get 'https://unileverna.tt.omtrdc.net/m2/unileverna/mbox/json?mbox=target-global-mbox&amp;mboxSession=01204fe16906418cb68cb9d42cd81e61' with 'no' parameters</t>
   </si>
 </sst>
 </file>
@@ -419,7 +420,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -447,15 +448,18 @@
         <v>4</v>
       </c>
       <c r="D2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="1">
         <v>1</v>
       </c>
+      <c r="C3" t="s">
+        <v>5</v>
+      </c>
       <c r="D3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -463,26 +467,26 @@
         <v>2</v>
       </c>
       <c r="D4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="1">
         <v>3</v>
       </c>
-      <c r="C5" t="s">
-        <v>5</v>
-      </c>
       <c r="D5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="1">
         <v>4</v>
       </c>
+      <c r="C6" t="s">
+        <v>6</v>
+      </c>
       <c r="D6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -490,7 +494,7 @@
         <v>5</v>
       </c>
       <c r="D7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -498,7 +502,7 @@
         <v>6</v>
       </c>
       <c r="D8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -506,7 +510,7 @@
         <v>7</v>
       </c>
       <c r="D9" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -514,14 +518,6 @@
         <v>8</v>
       </c>
       <c r="D10" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="A11" s="1">
-        <v>9</v>
-      </c>
-      <c r="D11" t="s">
         <v>15</v>
       </c>
     </row>

--- a/Regression.xlsx
+++ b/Regression.xlsx
@@ -25,43 +25,44 @@
     <t>Actions</t>
   </si>
   <si>
-    <t>validate Login Functionality With Wrong credits</t>
-  </si>
-  <si>
-    <t>Visit mfs.com</t>
-  </si>
-  <si>
-    <t>Click on login and Enter Credits</t>
-  </si>
-  <si>
-    <t>user open 'www.mfs.com/role-gate.html''</t>
-  </si>
-  <si>
-    <t>user validate page title as 'Role Gate'</t>
-  </si>
-  <si>
-    <t>user click on 'Login'</t>
-  </si>
-  <si>
-    <t>user check that 'username' is enabled</t>
-  </si>
-  <si>
-    <t>validate that 'password' is enabled</t>
-  </si>
-  <si>
-    <t>user enter 'guntertest@mfs.co' in 'username'</t>
-  </si>
-  <si>
-    <t>user enter 'guntertest14' in 'password'</t>
-  </si>
-  <si>
-    <t>Assert that 'rememberme' is not selected</t>
-  </si>
-  <si>
-    <t>user click on 'Login to MFS.com'</t>
-  </si>
-  <si>
-    <t>Assert that error 'Please log in with a valid user name and password' message is displayed</t>
+    <t>validate Search Result</t>
+  </si>
+  <si>
+    <t>Visit dove.com</t>
+  </si>
+  <si>
+    <t>click on Search button and enter text</t>
+  </si>
+  <si>
+    <t>select product from the dropdown
+click on the first product</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'www.dove.com/us/en/home.html' opened by user</t>
+  </si>
+  <si>
+    <t>user click on 'Search' button</t>
+  </si>
+  <si>
+    <t>user enter the text as 'Hair' in the 'Search Field'</t>
+  </si>
+  <si>
+    <t>user click on 'Search Button'</t>
+  </si>
+  <si>
+    <t>user selects 'Product' from the dropdown 'filterBy'</t>
+  </si>
+  <si>
+    <t>user clicks on 'Compressed Flexible Hold Hair Spray' link</t>
+  </si>
+  <si>
+    <t>user validate that 'Compressed Flexible Hold Hair Spray' link is displayed</t>
+  </si>
+  <si>
+    <t>get 'https://data.gingersoftware.com/clientdata/jsonSecured/GetApprovalCount?apiKey=BrowserStandalone&amp;lang=US&amp;userIdentifier=dffd08f4-e02e-45bf-bb48-a72d382bb59e&amp;authToken=01-1570440200471-9292' with 'no' parameters</t>
+  </si>
+  <si>
+    <t>get 'https://unileverna.tt.omtrdc.net/m2/unileverna/mbox/json?mbox=target-global-mbox&amp;mboxSession=01204fe16906418cb68cb9d42cd81e61' with 'no' parameters</t>
   </si>
 </sst>
 </file>
@@ -419,7 +420,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -447,15 +448,18 @@
         <v>4</v>
       </c>
       <c r="D2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="1">
         <v>1</v>
       </c>
+      <c r="C3" t="s">
+        <v>5</v>
+      </c>
       <c r="D3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -463,26 +467,26 @@
         <v>2</v>
       </c>
       <c r="D4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="1">
         <v>3</v>
       </c>
-      <c r="C5" t="s">
-        <v>5</v>
-      </c>
       <c r="D5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="1">
         <v>4</v>
       </c>
+      <c r="C6" t="s">
+        <v>6</v>
+      </c>
       <c r="D6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -490,7 +494,7 @@
         <v>5</v>
       </c>
       <c r="D7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -498,7 +502,7 @@
         <v>6</v>
       </c>
       <c r="D8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -506,7 +510,7 @@
         <v>7</v>
       </c>
       <c r="D9" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -514,14 +518,6 @@
         <v>8</v>
       </c>
       <c r="D10" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="A11" s="1">
-        <v>9</v>
-      </c>
-      <c r="D11" t="s">
         <v>15</v>
       </c>
     </row>

--- a/Regression.xlsx
+++ b/Regression.xlsx
@@ -41,7 +41,7 @@
     <t xml:space="preserve"> 'www.dove.com/us/en/home.html' opened by user</t>
   </si>
   <si>
-    <t>user click on 'Search' button</t>
+    <t xml:space="preserve"> 'Search' button is clicked by user</t>
   </si>
   <si>
     <t>user enter the text as 'Hair' in the 'Search Field'</t>
